--- a/Data_frame/balancos_definitivos/BMTO3.xlsx
+++ b/Data_frame/balancos_definitivos/BMTO3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ80"/>
+  <dimension ref="A1:BT80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,86 +794,6 @@
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1094,54 +1014,6 @@
       <c r="BT2" t="n">
         <v>1068209.984</v>
       </c>
-      <c r="BU2" t="n">
-        <v>372894.016</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>382265.984</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>390487.008</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>455544.992</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>456928</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1532205.056</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1065496</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1167015.04</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1445472</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1407875.968</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1372792.96</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1394978.944</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>1349318.016</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>1350664.96</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1326919.936</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1393536</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1362,54 +1234,6 @@
       <c r="BT3" t="n">
         <v>2541</v>
       </c>
-      <c r="BU3" t="n">
-        <v>127436</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>143644</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>158556.992</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>211128.992</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>220219.008</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>1279532.032</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>824166.0159999999</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>800376</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>902728</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>898915.008</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>867187.968</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>891780.992</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>879896</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>885596.992</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>860948.992</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>926838.0159999999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1630,54 +1454,6 @@
       <c r="BT4" t="n">
         <v>917</v>
       </c>
-      <c r="BU4" t="n">
-        <v>61746</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>81049</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>72739</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>110116</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>111196</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>1171260.032</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>509128.992</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>426380.992</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>319184.992</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>328227.008</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>288971.008</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>351710.016</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>359295.008</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>555355.008</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>523839.008</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>324075.008</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1898,54 +1674,6 @@
       <c r="BT5" t="n">
         <v>0</v>
       </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>200798</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>203279.008</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>194548</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>198396</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>204440</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>194763.008</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>219812.992</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>19379</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>19989</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>211268</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2166,54 +1894,6 @@
       <c r="BT6" t="n">
         <v>0</v>
       </c>
-      <c r="BU6" t="n">
-        <v>49700</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>42514</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>41256</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>86029</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>93877</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>92544</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>93637</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>134651.008</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>216112.992</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>198830</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>213180.992</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>215786</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>210279.008</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>192520</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>204330</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>230336.992</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2434,54 +2114,6 @@
       <c r="BT7" t="n">
         <v>0</v>
       </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>57401</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>56875</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>58968</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>46779</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>42184</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>43759</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>28711</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>31557</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2702,54 +2334,6 @@
       <c r="BT8" t="n">
         <v>0</v>
       </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2970,54 +2554,6 @@
       <c r="BT9" t="n">
         <v>1521</v>
       </c>
-      <c r="BU9" t="n">
-        <v>3084</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>4545</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>5645</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>8025</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>6643</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>8560</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>11894</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>22497</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>28501</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>30060</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>27715</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>24305</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>19720</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>29519</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>27189</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>26732</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3238,54 +2774,6 @@
       <c r="BT10" t="n">
         <v>103</v>
       </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3506,54 +2994,6 @@
       <c r="BT11" t="n">
         <v>0</v>
       </c>
-      <c r="BU11" t="n">
-        <v>12906</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>15536</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>38917</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>6959</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>8503</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>7168</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>8708</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>13568</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>86980</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>86527</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>73913</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>58438</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>28605</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>45065</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>56891</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>102869</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3774,54 +3214,6 @@
       <c r="BT12" t="n">
         <v>57616</v>
       </c>
-      <c r="BU12" t="n">
-        <v>33695</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>28478</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>23687</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>20379</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>15730</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>31572</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>23373</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>17469</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>32962</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>26715</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>20325</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>18676</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>18454</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>19837</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>20996</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>23311</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4042,54 +3434,6 @@
       <c r="BT13" t="n">
         <v>0</v>
       </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4310,54 +3654,6 @@
       <c r="BT14" t="n">
         <v>0</v>
       </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4578,54 +3874,6 @@
       <c r="BT15" t="n">
         <v>2070</v>
       </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4846,54 +4094,6 @@
       <c r="BT16" t="n">
         <v>0</v>
       </c>
-      <c r="BU16" t="n">
-        <v>38</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>47</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>42</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>387</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>43</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>42</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>40</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>267</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>687</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>650</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>666</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>732</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>746</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>2325</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>3623</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>5202</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5114,54 +4314,6 @@
       <c r="BT17" t="n">
         <v>0</v>
       </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5382,54 +4534,6 @@
       <c r="BT18" t="n">
         <v>2211</v>
       </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5650,54 +4754,6 @@
       <c r="BT19" t="n">
         <v>0</v>
       </c>
-      <c r="BU19" t="n">
-        <v>33657</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>28431</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>23645</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>19992</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>15687</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>31530</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>23333</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>17202</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>32275</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>26065</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>19659</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>17944</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>17708</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>17512</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>17373</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>18109</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5918,54 +4974,6 @@
       <c r="BT20" t="n">
         <v>19994</v>
       </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6186,54 +5194,6 @@
       <c r="BT21" t="n">
         <v>33341</v>
       </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6454,54 +5414,6 @@
       <c r="BT22" t="n">
         <v>1008052.992</v>
       </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6722,54 +5634,6 @@
       <c r="BT23" t="n">
         <v>0</v>
       </c>
-      <c r="BU23" t="n">
-        <v>10011</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>10542</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>10513</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>13554</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>12627</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>11484</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>10334</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>10174</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>29779</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>27292</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>20741</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>19982</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>11370</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>12812</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>13408</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>12471</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6990,54 +5854,6 @@
       <c r="BT24" t="n">
         <v>0</v>
       </c>
-      <c r="BU24" t="n">
-        <v>201752</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>199602</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>197730</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>210483.008</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>208352</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>209616.992</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>207623.008</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>338996</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>480003.008</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>454953.984</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>464539.008</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>464540</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>439598.016</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>432419.008</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>431567.008</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>430916</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7258,54 +6074,6 @@
       <c r="BT25" t="n">
         <v>0</v>
       </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7526,54 +6294,6 @@
       <c r="BT26" t="n">
         <v>1068209.984</v>
       </c>
-      <c r="BU26" t="n">
-        <v>372894.016</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>382265.984</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>390487.008</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>455544.992</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>456928</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>1532205.056</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>1065496</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>1167015.04</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>1445472</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>1407875.968</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>1372792.96</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>1394978.944</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>1349318.016</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>1350664.96</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>1326919.936</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>1393536</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7794,54 +6514,6 @@
       <c r="BT27" t="n">
         <v>1451</v>
       </c>
-      <c r="BU27" t="n">
-        <v>19871</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>19362</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>18456</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>52390</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>299520</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>487641.984</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>48458</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>78542</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>349431.008</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>324663.008</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>279176</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>260724.992</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>259100.992</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>248658</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>232220</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>277072.992</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8062,54 +6734,6 @@
       <c r="BT28" t="n">
         <v>0</v>
       </c>
-      <c r="BU28" t="n">
-        <v>9404</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>6295</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>9282</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>14740</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>14077</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>19171</v>
-      </c>
-      <c r="CA28" t="n">
-        <v>21809</v>
-      </c>
-      <c r="CB28" t="n">
-        <v>28989</v>
-      </c>
-      <c r="CC28" t="n">
-        <v>39278</v>
-      </c>
-      <c r="CD28" t="n">
-        <v>40371</v>
-      </c>
-      <c r="CE28" t="n">
-        <v>35994</v>
-      </c>
-      <c r="CF28" t="n">
-        <v>43315</v>
-      </c>
-      <c r="CG28" t="n">
-        <v>46254</v>
-      </c>
-      <c r="CH28" t="n">
-        <v>51515</v>
-      </c>
-      <c r="CI28" t="n">
-        <v>37522</v>
-      </c>
-      <c r="CJ28" t="n">
-        <v>41371</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8330,54 +6954,6 @@
       <c r="BT29" t="n">
         <v>0</v>
       </c>
-      <c r="BU29" t="n">
-        <v>7082</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>9714</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>4501</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>31773</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>26575</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>31068</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>20649</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>40883</v>
-      </c>
-      <c r="CC29" t="n">
-        <v>140240</v>
-      </c>
-      <c r="CD29" t="n">
-        <v>125376</v>
-      </c>
-      <c r="CE29" t="n">
-        <v>124391</v>
-      </c>
-      <c r="CF29" t="n">
-        <v>121013</v>
-      </c>
-      <c r="CG29" t="n">
-        <v>110744</v>
-      </c>
-      <c r="CH29" t="n">
-        <v>99046</v>
-      </c>
-      <c r="CI29" t="n">
-        <v>95085</v>
-      </c>
-      <c r="CJ29" t="n">
-        <v>102981</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8598,54 +7174,6 @@
       <c r="BT30" t="n">
         <v>27</v>
       </c>
-      <c r="BU30" t="n">
-        <v>2964</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>2894</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>4214</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>4902</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>4289</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>4591</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>4826</v>
-      </c>
-      <c r="CB30" t="n">
-        <v>7623</v>
-      </c>
-      <c r="CC30" t="n">
-        <v>9429</v>
-      </c>
-      <c r="CD30" t="n">
-        <v>14186</v>
-      </c>
-      <c r="CE30" t="n">
-        <v>11971</v>
-      </c>
-      <c r="CF30" t="n">
-        <v>14837</v>
-      </c>
-      <c r="CG30" t="n">
-        <v>11912</v>
-      </c>
-      <c r="CH30" t="n">
-        <v>10315</v>
-      </c>
-      <c r="CI30" t="n">
-        <v>9926</v>
-      </c>
-      <c r="CJ30" t="n">
-        <v>9363</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8866,54 +7394,6 @@
       <c r="BT31" t="n">
         <v>0</v>
       </c>
-      <c r="BU31" t="n">
-        <v>421</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>459</v>
-      </c>
-      <c r="BW31" t="n">
-        <v>459</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>975</v>
-      </c>
-      <c r="BY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9134,54 +7614,6 @@
       <c r="BT32" t="n">
         <v>901</v>
       </c>
-      <c r="BU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9402,54 +7834,6 @@
       <c r="BT33" t="n">
         <v>373</v>
       </c>
-      <c r="BU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY33" t="n">
-        <v>8486</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>186718</v>
-      </c>
-      <c r="CA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC33" t="n">
-        <v>17895</v>
-      </c>
-      <c r="CD33" t="n">
-        <v>17895</v>
-      </c>
-      <c r="CE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG33" t="n">
-        <v>20322</v>
-      </c>
-      <c r="CH33" t="n">
-        <v>20322</v>
-      </c>
-      <c r="CI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9670,54 +8054,6 @@
       <c r="BT34" t="n">
         <v>150</v>
       </c>
-      <c r="BU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY34" t="n">
-        <v>246093.008</v>
-      </c>
-      <c r="BZ34" t="n">
-        <v>246094</v>
-      </c>
-      <c r="CA34" t="n">
-        <v>1174</v>
-      </c>
-      <c r="CB34" t="n">
-        <v>1047</v>
-      </c>
-      <c r="CC34" t="n">
-        <v>142589</v>
-      </c>
-      <c r="CD34" t="n">
-        <v>126835</v>
-      </c>
-      <c r="CE34" t="n">
-        <v>106820</v>
-      </c>
-      <c r="CF34" t="n">
-        <v>77713</v>
-      </c>
-      <c r="CG34" t="n">
-        <v>69869</v>
-      </c>
-      <c r="CH34" t="n">
-        <v>67460</v>
-      </c>
-      <c r="CI34" t="n">
-        <v>89687</v>
-      </c>
-      <c r="CJ34" t="n">
-        <v>123358</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9938,54 +8274,6 @@
       <c r="BT35" t="n">
         <v>0</v>
       </c>
-      <c r="BU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10206,54 +8494,6 @@
       <c r="BT36" t="n">
         <v>0</v>
       </c>
-      <c r="BU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF36" t="n">
-        <v>3847</v>
-      </c>
-      <c r="CG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10474,54 +8714,6 @@
       <c r="BT37" t="n">
         <v>20442</v>
       </c>
-      <c r="BU37" t="n">
-        <v>723</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>633</v>
-      </c>
-      <c r="BW37" t="n">
-        <v>541</v>
-      </c>
-      <c r="BX37" t="n">
-        <v>247812.992</v>
-      </c>
-      <c r="BY37" t="n">
-        <v>2780</v>
-      </c>
-      <c r="BZ37" t="n">
-        <v>2620</v>
-      </c>
-      <c r="CA37" t="n">
-        <v>2398</v>
-      </c>
-      <c r="CB37" t="n">
-        <v>66880</v>
-      </c>
-      <c r="CC37" t="n">
-        <v>66318</v>
-      </c>
-      <c r="CD37" t="n">
-        <v>62041</v>
-      </c>
-      <c r="CE37" t="n">
-        <v>63126</v>
-      </c>
-      <c r="CF37" t="n">
-        <v>70547</v>
-      </c>
-      <c r="CG37" t="n">
-        <v>31691</v>
-      </c>
-      <c r="CH37" t="n">
-        <v>36028</v>
-      </c>
-      <c r="CI37" t="n">
-        <v>31893</v>
-      </c>
-      <c r="CJ37" t="n">
-        <v>36261</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10742,54 +8934,6 @@
       <c r="BT38" t="n">
         <v>0</v>
       </c>
-      <c r="BU38" t="n">
-        <v>723</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>633</v>
-      </c>
-      <c r="BW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX38" t="n">
-        <v>2893</v>
-      </c>
-      <c r="BY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11010,54 +9154,6 @@
       <c r="BT39" t="n">
         <v>0</v>
       </c>
-      <c r="BU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX39" t="n">
-        <v>244920</v>
-      </c>
-      <c r="BY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11278,54 +9374,6 @@
       <c r="BT40" t="n">
         <v>0</v>
       </c>
-      <c r="BU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY40" t="n">
-        <v>2780</v>
-      </c>
-      <c r="BZ40" t="n">
-        <v>2620</v>
-      </c>
-      <c r="CA40" t="n">
-        <v>2398</v>
-      </c>
-      <c r="CB40" t="n">
-        <v>66880</v>
-      </c>
-      <c r="CC40" t="n">
-        <v>66318</v>
-      </c>
-      <c r="CD40" t="n">
-        <v>62041</v>
-      </c>
-      <c r="CE40" t="n">
-        <v>63126</v>
-      </c>
-      <c r="CF40" t="n">
-        <v>65771</v>
-      </c>
-      <c r="CG40" t="n">
-        <v>22452</v>
-      </c>
-      <c r="CH40" t="n">
-        <v>20890</v>
-      </c>
-      <c r="CI40" t="n">
-        <v>12434</v>
-      </c>
-      <c r="CJ40" t="n">
-        <v>12241</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11546,54 +9594,6 @@
       <c r="BT41" t="n">
         <v>0</v>
       </c>
-      <c r="BU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW41" t="n">
-        <v>541</v>
-      </c>
-      <c r="BX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF41" t="n">
-        <v>4776</v>
-      </c>
-      <c r="CG41" t="n">
-        <v>9239</v>
-      </c>
-      <c r="CH41" t="n">
-        <v>15138</v>
-      </c>
-      <c r="CI41" t="n">
-        <v>19459</v>
-      </c>
-      <c r="CJ41" t="n">
-        <v>24020</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11814,54 +9814,6 @@
       <c r="BT42" t="n">
         <v>0</v>
       </c>
-      <c r="BU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12082,54 +10034,6 @@
       <c r="BT43" t="n">
         <v>20442</v>
       </c>
-      <c r="BU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12350,54 +10254,6 @@
       <c r="BT44" t="n">
         <v>0</v>
       </c>
-      <c r="BU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12618,54 +10474,6 @@
       <c r="BT45" t="n">
         <v>0</v>
       </c>
-      <c r="BU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12886,54 +10694,6 @@
       <c r="BT46" t="n">
         <v>0</v>
       </c>
-      <c r="BU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI46" t="n">
-        <v>-514</v>
-      </c>
-      <c r="CJ46" t="n">
-        <v>174</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13154,54 +10914,6 @@
       <c r="BT47" t="n">
         <v>1046316.992</v>
       </c>
-      <c r="BU47" t="n">
-        <v>352300</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>362271.008</v>
-      </c>
-      <c r="BW47" t="n">
-        <v>371489.984</v>
-      </c>
-      <c r="BX47" t="n">
-        <v>155342</v>
-      </c>
-      <c r="BY47" t="n">
-        <v>154628</v>
-      </c>
-      <c r="BZ47" t="n">
-        <v>1041942.976</v>
-      </c>
-      <c r="CA47" t="n">
-        <v>1014640</v>
-      </c>
-      <c r="CB47" t="n">
-        <v>1021593.024</v>
-      </c>
-      <c r="CC47" t="n">
-        <v>1029723.008</v>
-      </c>
-      <c r="CD47" t="n">
-        <v>1021171.968</v>
-      </c>
-      <c r="CE47" t="n">
-        <v>1030491.008</v>
-      </c>
-      <c r="CF47" t="n">
-        <v>1063707.008</v>
-      </c>
-      <c r="CG47" t="n">
-        <v>1058526.016</v>
-      </c>
-      <c r="CH47" t="n">
-        <v>1065979.008</v>
-      </c>
-      <c r="CI47" t="n">
-        <v>1063320.976</v>
-      </c>
-      <c r="CJ47" t="n">
-        <v>1080027.984</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13422,54 +11134,6 @@
       <c r="BT48" t="n">
         <v>577400</v>
       </c>
-      <c r="BU48" t="n">
-        <v>183391.008</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>183391.008</v>
-      </c>
-      <c r="BW48" t="n">
-        <v>183391.008</v>
-      </c>
-      <c r="BX48" t="n">
-        <v>183391.008</v>
-      </c>
-      <c r="BY48" t="n">
-        <v>183391.008</v>
-      </c>
-      <c r="BZ48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CA48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CB48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CC48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CD48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CE48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CF48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CG48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CH48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CI48" t="n">
-        <v>1233744</v>
-      </c>
-      <c r="CJ48" t="n">
-        <v>1233744</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13690,54 +11354,6 @@
       <c r="BT49" t="n">
         <v>0</v>
       </c>
-      <c r="BU49" t="n">
-        <v>4123</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>4123</v>
-      </c>
-      <c r="BW49" t="n">
-        <v>4123</v>
-      </c>
-      <c r="BX49" t="n">
-        <v>4123</v>
-      </c>
-      <c r="BY49" t="n">
-        <v>4302</v>
-      </c>
-      <c r="BZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA49" t="n">
-        <v>-25454</v>
-      </c>
-      <c r="CB49" t="n">
-        <v>-42128</v>
-      </c>
-      <c r="CC49" t="n">
-        <v>-46125</v>
-      </c>
-      <c r="CD49" t="n">
-        <v>-48238</v>
-      </c>
-      <c r="CE49" t="n">
-        <v>-54236</v>
-      </c>
-      <c r="CF49" t="n">
-        <v>-55680</v>
-      </c>
-      <c r="CG49" t="n">
-        <v>-63113</v>
-      </c>
-      <c r="CH49" t="n">
-        <v>-63190</v>
-      </c>
-      <c r="CI49" t="n">
-        <v>-62436</v>
-      </c>
-      <c r="CJ49" t="n">
-        <v>43813</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13958,54 +11574,6 @@
       <c r="BT50" t="n">
         <v>0</v>
       </c>
-      <c r="BU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14226,54 +11794,6 @@
       <c r="BT51" t="n">
         <v>368963.008</v>
       </c>
-      <c r="BU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX51" t="n">
-        <v>186718</v>
-      </c>
-      <c r="BY51" t="n">
-        <v>192030</v>
-      </c>
-      <c r="BZ51" t="n">
-        <v>13798</v>
-      </c>
-      <c r="CA51" t="n">
-        <v>13798</v>
-      </c>
-      <c r="CB51" t="n">
-        <v>13798</v>
-      </c>
-      <c r="CC51" t="n">
-        <v>71252</v>
-      </c>
-      <c r="CD51" t="n">
-        <v>71252</v>
-      </c>
-      <c r="CE51" t="n">
-        <v>71252</v>
-      </c>
-      <c r="CF51" t="n">
-        <v>71252</v>
-      </c>
-      <c r="CG51" t="n">
-        <v>136496</v>
-      </c>
-      <c r="CH51" t="n">
-        <v>135132</v>
-      </c>
-      <c r="CI51" t="n">
-        <v>135132</v>
-      </c>
-      <c r="CJ51" t="n">
-        <v>68395</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14494,54 +12014,6 @@
       <c r="BT52" t="n">
         <v>81212</v>
       </c>
-      <c r="BU52" t="n">
-        <v>164786</v>
-      </c>
-      <c r="BV52" t="n">
-        <v>174756.992</v>
-      </c>
-      <c r="BW52" t="n">
-        <v>183976</v>
-      </c>
-      <c r="BX52" t="n">
-        <v>6536</v>
-      </c>
-      <c r="BY52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ52" t="n">
-        <v>13943</v>
-      </c>
-      <c r="CA52" t="n">
-        <v>31965</v>
-      </c>
-      <c r="CB52" t="n">
-        <v>50949</v>
-      </c>
-      <c r="CC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD52" t="n">
-        <v>21056</v>
-      </c>
-      <c r="CE52" t="n">
-        <v>25911</v>
-      </c>
-      <c r="CF52" t="n">
-        <v>62966</v>
-      </c>
-      <c r="CG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH52" t="n">
-        <v>17098</v>
-      </c>
-      <c r="CI52" t="n">
-        <v>31049</v>
-      </c>
-      <c r="CJ52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14762,54 +12234,6 @@
       <c r="BT53" t="n">
         <v>0</v>
       </c>
-      <c r="BU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX53" t="n">
-        <v>-225426</v>
-      </c>
-      <c r="BY53" t="n">
-        <v>-225426</v>
-      </c>
-      <c r="BZ53" t="n">
-        <v>-225426</v>
-      </c>
-      <c r="CA53" t="n">
-        <v>-225426</v>
-      </c>
-      <c r="CB53" t="n">
-        <v>-225094</v>
-      </c>
-      <c r="CC53" t="n">
-        <v>-225094</v>
-      </c>
-      <c r="CD53" t="n">
-        <v>-225094</v>
-      </c>
-      <c r="CE53" t="n">
-        <v>-225094</v>
-      </c>
-      <c r="CF53" t="n">
-        <v>-225102</v>
-      </c>
-      <c r="CG53" t="n">
-        <v>-225102</v>
-      </c>
-      <c r="CH53" t="n">
-        <v>-225102</v>
-      </c>
-      <c r="CI53" t="n">
-        <v>-230104.992</v>
-      </c>
-      <c r="CJ53" t="n">
-        <v>-230104.992</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15030,54 +12454,6 @@
       <c r="BT54" t="n">
         <v>0</v>
       </c>
-      <c r="BU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15298,54 +12674,6 @@
       <c r="BT55" t="n">
         <v>18742</v>
       </c>
-      <c r="BU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY55" t="n">
-        <v>331</v>
-      </c>
-      <c r="BZ55" t="n">
-        <v>5884</v>
-      </c>
-      <c r="CA55" t="n">
-        <v>-13987</v>
-      </c>
-      <c r="CB55" t="n">
-        <v>-9676</v>
-      </c>
-      <c r="CC55" t="n">
-        <v>-4054</v>
-      </c>
-      <c r="CD55" t="n">
-        <v>-31548</v>
-      </c>
-      <c r="CE55" t="n">
-        <v>-21086</v>
-      </c>
-      <c r="CF55" t="n">
-        <v>-23473</v>
-      </c>
-      <c r="CG55" t="n">
-        <v>-23499</v>
-      </c>
-      <c r="CH55" t="n">
-        <v>-31703</v>
-      </c>
-      <c r="CI55" t="n">
-        <v>-44063</v>
-      </c>
-      <c r="CJ55" t="n">
-        <v>-35819</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15564,54 +12892,6 @@
         <v>0</v>
       </c>
       <c r="BT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15784,22 +13064,6 @@
       <c r="BR57" t="inlineStr"/>
       <c r="BS57" t="inlineStr"/>
       <c r="BT57" t="inlineStr"/>
-      <c r="BU57" t="inlineStr"/>
-      <c r="BV57" t="inlineStr"/>
-      <c r="BW57" t="inlineStr"/>
-      <c r="BX57" t="inlineStr"/>
-      <c r="BY57" t="inlineStr"/>
-      <c r="BZ57" t="inlineStr"/>
-      <c r="CA57" t="inlineStr"/>
-      <c r="CB57" t="inlineStr"/>
-      <c r="CC57" t="inlineStr"/>
-      <c r="CD57" t="inlineStr"/>
-      <c r="CE57" t="inlineStr"/>
-      <c r="CF57" t="inlineStr"/>
-      <c r="CG57" t="inlineStr"/>
-      <c r="CH57" t="inlineStr"/>
-      <c r="CI57" t="inlineStr"/>
-      <c r="CJ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15970,22 +13234,6 @@
       <c r="BR58" t="inlineStr"/>
       <c r="BS58" t="inlineStr"/>
       <c r="BT58" t="inlineStr"/>
-      <c r="BU58" t="inlineStr"/>
-      <c r="BV58" t="inlineStr"/>
-      <c r="BW58" t="inlineStr"/>
-      <c r="BX58" t="inlineStr"/>
-      <c r="BY58" t="inlineStr"/>
-      <c r="BZ58" t="inlineStr"/>
-      <c r="CA58" t="inlineStr"/>
-      <c r="CB58" t="inlineStr"/>
-      <c r="CC58" t="inlineStr"/>
-      <c r="CD58" t="inlineStr"/>
-      <c r="CE58" t="inlineStr"/>
-      <c r="CF58" t="inlineStr"/>
-      <c r="CG58" t="inlineStr"/>
-      <c r="CH58" t="inlineStr"/>
-      <c r="CI58" t="inlineStr"/>
-      <c r="CJ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16202,52 +13450,6 @@
       <c r="BT59" t="n">
         <v>0</v>
       </c>
-      <c r="BU59" t="inlineStr"/>
-      <c r="BV59" t="n">
-        <v>37617</v>
-      </c>
-      <c r="BW59" t="n">
-        <v>35032</v>
-      </c>
-      <c r="BX59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY59" t="n">
-        <v>98897</v>
-      </c>
-      <c r="BZ59" t="n">
-        <v>62396</v>
-      </c>
-      <c r="CA59" t="n">
-        <v>61999</v>
-      </c>
-      <c r="CB59" t="n">
-        <v>75669</v>
-      </c>
-      <c r="CC59" t="n">
-        <v>288772.992</v>
-      </c>
-      <c r="CD59" t="n">
-        <v>378548.992</v>
-      </c>
-      <c r="CE59" t="n">
-        <v>375648.992</v>
-      </c>
-      <c r="CF59" t="n">
-        <v>374936.992</v>
-      </c>
-      <c r="CG59" t="n">
-        <v>346689.024</v>
-      </c>
-      <c r="CH59" t="n">
-        <v>315996.992</v>
-      </c>
-      <c r="CI59" t="n">
-        <v>318857.984</v>
-      </c>
-      <c r="CJ59" t="n">
-        <v>326064</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16464,52 +13666,6 @@
       <c r="BT60" t="n">
         <v>0</v>
       </c>
-      <c r="BU60" t="inlineStr"/>
-      <c r="BV60" t="n">
-        <v>-15587</v>
-      </c>
-      <c r="BW60" t="n">
-        <v>-14444</v>
-      </c>
-      <c r="BX60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY60" t="n">
-        <v>-39878</v>
-      </c>
-      <c r="BZ60" t="n">
-        <v>-29797</v>
-      </c>
-      <c r="CA60" t="n">
-        <v>-30744</v>
-      </c>
-      <c r="CB60" t="n">
-        <v>-32853</v>
-      </c>
-      <c r="CC60" t="n">
-        <v>-213602</v>
-      </c>
-      <c r="CD60" t="n">
-        <v>-305048</v>
-      </c>
-      <c r="CE60" t="n">
-        <v>-298311.008</v>
-      </c>
-      <c r="CF60" t="n">
-        <v>-292873.984</v>
-      </c>
-      <c r="CG60" t="n">
-        <v>-262580.064</v>
-      </c>
-      <c r="CH60" t="n">
-        <v>-236959.008</v>
-      </c>
-      <c r="CI60" t="n">
-        <v>-243496</v>
-      </c>
-      <c r="CJ60" t="n">
-        <v>-250742</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16726,52 +13882,6 @@
       <c r="BT61" t="n">
         <v>0</v>
       </c>
-      <c r="BU61" t="inlineStr"/>
-      <c r="BV61" t="n">
-        <v>22030</v>
-      </c>
-      <c r="BW61" t="n">
-        <v>20588</v>
-      </c>
-      <c r="BX61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY61" t="n">
-        <v>59019</v>
-      </c>
-      <c r="BZ61" t="n">
-        <v>32599</v>
-      </c>
-      <c r="CA61" t="n">
-        <v>31255</v>
-      </c>
-      <c r="CB61" t="n">
-        <v>42816</v>
-      </c>
-      <c r="CC61" t="n">
-        <v>75170.992</v>
-      </c>
-      <c r="CD61" t="n">
-        <v>73501</v>
-      </c>
-      <c r="CE61" t="n">
-        <v>77338</v>
-      </c>
-      <c r="CF61" t="n">
-        <v>82063</v>
-      </c>
-      <c r="CG61" t="n">
-        <v>84109.008</v>
-      </c>
-      <c r="CH61" t="n">
-        <v>79038</v>
-      </c>
-      <c r="CI61" t="n">
-        <v>75362</v>
-      </c>
-      <c r="CJ61" t="n">
-        <v>75322</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16988,52 +14098,6 @@
       <c r="BT62" t="n">
         <v>0</v>
       </c>
-      <c r="BU62" t="inlineStr"/>
-      <c r="BV62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW62" t="n">
-        <v>-6886</v>
-      </c>
-      <c r="BX62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY62" t="n">
-        <v>6886</v>
-      </c>
-      <c r="BZ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17249,52 +14313,6 @@
       </c>
       <c r="BT63" t="n">
         <v>-301</v>
-      </c>
-      <c r="BU63" t="inlineStr"/>
-      <c r="BV63" t="n">
-        <v>-7203</v>
-      </c>
-      <c r="BW63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY63" t="n">
-        <v>-32329</v>
-      </c>
-      <c r="BZ63" t="n">
-        <v>-12892</v>
-      </c>
-      <c r="CA63" t="n">
-        <v>-9828</v>
-      </c>
-      <c r="CB63" t="n">
-        <v>-23570</v>
-      </c>
-      <c r="CC63" t="n">
-        <v>-50678</v>
-      </c>
-      <c r="CD63" t="n">
-        <v>-49878</v>
-      </c>
-      <c r="CE63" t="n">
-        <v>-51005</v>
-      </c>
-      <c r="CF63" t="n">
-        <v>-56959</v>
-      </c>
-      <c r="CG63" t="n">
-        <v>-57997.008</v>
-      </c>
-      <c r="CH63" t="n">
-        <v>-54600</v>
-      </c>
-      <c r="CI63" t="n">
-        <v>-55137</v>
-      </c>
-      <c r="CJ63" t="n">
-        <v>-49006</v>
       </c>
     </row>
     <row r="64">
@@ -17418,52 +14436,6 @@
       <c r="BT64" t="n">
         <v>0</v>
       </c>
-      <c r="BU64" t="inlineStr"/>
-      <c r="BV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17680,52 +14652,6 @@
       <c r="BT65" t="n">
         <v>0</v>
       </c>
-      <c r="BU65" t="inlineStr"/>
-      <c r="BV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE65" t="n">
-        <v>-2767</v>
-      </c>
-      <c r="CF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG65" t="n">
-        <v>276</v>
-      </c>
-      <c r="CH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI65" t="n">
-        <v>16</v>
-      </c>
-      <c r="CJ65" t="n">
-        <v>242</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17942,52 +14868,6 @@
       <c r="BT66" t="n">
         <v>-3128</v>
       </c>
-      <c r="BU66" t="inlineStr"/>
-      <c r="BV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH66" t="n">
-        <v>402</v>
-      </c>
-      <c r="CI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18204,52 +15084,6 @@
       <c r="BT67" t="n">
         <v>36831</v>
       </c>
-      <c r="BU67" t="inlineStr"/>
-      <c r="BV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18466,52 +15300,6 @@
       <c r="BT68" t="n">
         <v>919</v>
       </c>
-      <c r="BU68" t="inlineStr"/>
-      <c r="BV68" t="n">
-        <v>371</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>311</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>-4403</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>2908</v>
-      </c>
-      <c r="CA68" t="n">
-        <v>4005</v>
-      </c>
-      <c r="CB68" t="n">
-        <v>9369</v>
-      </c>
-      <c r="CC68" t="n">
-        <v>7483</v>
-      </c>
-      <c r="CD68" t="n">
-        <v>10104</v>
-      </c>
-      <c r="CE68" t="n">
-        <v>-7143</v>
-      </c>
-      <c r="CF68" t="n">
-        <v>29697</v>
-      </c>
-      <c r="CG68" t="n">
-        <v>4891</v>
-      </c>
-      <c r="CH68" t="n">
-        <v>6260</v>
-      </c>
-      <c r="CI68" t="n">
-        <v>5947</v>
-      </c>
-      <c r="CJ68" t="n">
-        <v>2238</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18728,52 +15516,6 @@
       <c r="BT69" t="n">
         <v>1182</v>
       </c>
-      <c r="BU69" t="inlineStr"/>
-      <c r="BV69" t="n">
-        <v>684</v>
-      </c>
-      <c r="BW69" t="n">
-        <v>486</v>
-      </c>
-      <c r="BX69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY69" t="n">
-        <v>989</v>
-      </c>
-      <c r="BZ69" t="n">
-        <v>3330</v>
-      </c>
-      <c r="CA69" t="n">
-        <v>6159</v>
-      </c>
-      <c r="CB69" t="n">
-        <v>10509</v>
-      </c>
-      <c r="CC69" t="n">
-        <v>10269</v>
-      </c>
-      <c r="CD69" t="n">
-        <v>15519</v>
-      </c>
-      <c r="CE69" t="n">
-        <v>17175</v>
-      </c>
-      <c r="CF69" t="n">
-        <v>34190</v>
-      </c>
-      <c r="CG69" t="n">
-        <v>-766</v>
-      </c>
-      <c r="CH69" t="n">
-        <v>16490</v>
-      </c>
-      <c r="CI69" t="n">
-        <v>15293</v>
-      </c>
-      <c r="CJ69" t="n">
-        <v>17096</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18989,52 +15731,6 @@
       </c>
       <c r="BT70" t="n">
         <v>-263</v>
-      </c>
-      <c r="BU70" t="inlineStr"/>
-      <c r="BV70" t="n">
-        <v>-313</v>
-      </c>
-      <c r="BW70" t="n">
-        <v>-175</v>
-      </c>
-      <c r="BX70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY70" t="n">
-        <v>-5392</v>
-      </c>
-      <c r="BZ70" t="n">
-        <v>-422</v>
-      </c>
-      <c r="CA70" t="n">
-        <v>-2154</v>
-      </c>
-      <c r="CB70" t="n">
-        <v>-1140</v>
-      </c>
-      <c r="CC70" t="n">
-        <v>-2786</v>
-      </c>
-      <c r="CD70" t="n">
-        <v>-5415</v>
-      </c>
-      <c r="CE70" t="n">
-        <v>-24318</v>
-      </c>
-      <c r="CF70" t="n">
-        <v>-4493</v>
-      </c>
-      <c r="CG70" t="n">
-        <v>5657</v>
-      </c>
-      <c r="CH70" t="n">
-        <v>-10230</v>
-      </c>
-      <c r="CI70" t="n">
-        <v>-9346</v>
-      </c>
-      <c r="CJ70" t="n">
-        <v>-14858</v>
       </c>
     </row>
     <row r="71">
@@ -19206,22 +15902,6 @@
       <c r="BR71" t="inlineStr"/>
       <c r="BS71" t="inlineStr"/>
       <c r="BT71" t="inlineStr"/>
-      <c r="BU71" t="inlineStr"/>
-      <c r="BV71" t="inlineStr"/>
-      <c r="BW71" t="inlineStr"/>
-      <c r="BX71" t="inlineStr"/>
-      <c r="BY71" t="inlineStr"/>
-      <c r="BZ71" t="inlineStr"/>
-      <c r="CA71" t="inlineStr"/>
-      <c r="CB71" t="inlineStr"/>
-      <c r="CC71" t="inlineStr"/>
-      <c r="CD71" t="inlineStr"/>
-      <c r="CE71" t="inlineStr"/>
-      <c r="CF71" t="inlineStr"/>
-      <c r="CG71" t="inlineStr"/>
-      <c r="CH71" t="inlineStr"/>
-      <c r="CI71" t="inlineStr"/>
-      <c r="CJ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19392,22 +16072,6 @@
       <c r="BR72" t="inlineStr"/>
       <c r="BS72" t="inlineStr"/>
       <c r="BT72" t="inlineStr"/>
-      <c r="BU72" t="inlineStr"/>
-      <c r="BV72" t="inlineStr"/>
-      <c r="BW72" t="inlineStr"/>
-      <c r="BX72" t="inlineStr"/>
-      <c r="BY72" t="inlineStr"/>
-      <c r="BZ72" t="inlineStr"/>
-      <c r="CA72" t="inlineStr"/>
-      <c r="CB72" t="inlineStr"/>
-      <c r="CC72" t="inlineStr"/>
-      <c r="CD72" t="inlineStr"/>
-      <c r="CE72" t="inlineStr"/>
-      <c r="CF72" t="inlineStr"/>
-      <c r="CG72" t="inlineStr"/>
-      <c r="CH72" t="inlineStr"/>
-      <c r="CI72" t="inlineStr"/>
-      <c r="CJ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19578,22 +16242,6 @@
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
       <c r="BT73" t="inlineStr"/>
-      <c r="BU73" t="inlineStr"/>
-      <c r="BV73" t="inlineStr"/>
-      <c r="BW73" t="inlineStr"/>
-      <c r="BX73" t="inlineStr"/>
-      <c r="BY73" t="inlineStr"/>
-      <c r="BZ73" t="inlineStr"/>
-      <c r="CA73" t="inlineStr"/>
-      <c r="CB73" t="inlineStr"/>
-      <c r="CC73" t="inlineStr"/>
-      <c r="CD73" t="inlineStr"/>
-      <c r="CE73" t="inlineStr"/>
-      <c r="CF73" t="inlineStr"/>
-      <c r="CG73" t="inlineStr"/>
-      <c r="CH73" t="inlineStr"/>
-      <c r="CI73" t="inlineStr"/>
-      <c r="CJ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19810,52 +16458,6 @@
       <c r="BT74" t="n">
         <v>34321</v>
       </c>
-      <c r="BU74" t="inlineStr"/>
-      <c r="BV74" t="n">
-        <v>15198</v>
-      </c>
-      <c r="BW74" t="n">
-        <v>14013</v>
-      </c>
-      <c r="BX74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY74" t="n">
-        <v>29173</v>
-      </c>
-      <c r="BZ74" t="n">
-        <v>22615</v>
-      </c>
-      <c r="CA74" t="n">
-        <v>25432</v>
-      </c>
-      <c r="CB74" t="n">
-        <v>28615</v>
-      </c>
-      <c r="CC74" t="n">
-        <v>31976</v>
-      </c>
-      <c r="CD74" t="n">
-        <v>33727</v>
-      </c>
-      <c r="CE74" t="n">
-        <v>16423</v>
-      </c>
-      <c r="CF74" t="n">
-        <v>54801</v>
-      </c>
-      <c r="CG74" t="n">
-        <v>31279</v>
-      </c>
-      <c r="CH74" t="n">
-        <v>31100</v>
-      </c>
-      <c r="CI74" t="n">
-        <v>26188</v>
-      </c>
-      <c r="CJ74" t="n">
-        <v>28796</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20072,52 +16674,6 @@
       <c r="BT75" t="n">
         <v>-122</v>
       </c>
-      <c r="BU75" t="inlineStr"/>
-      <c r="BV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW75" t="n">
-        <v>-8</v>
-      </c>
-      <c r="BX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY75" t="n">
-        <v>-3976</v>
-      </c>
-      <c r="BZ75" t="n">
-        <v>-3072</v>
-      </c>
-      <c r="CA75" t="n">
-        <v>748</v>
-      </c>
-      <c r="CB75" t="n">
-        <v>-2504</v>
-      </c>
-      <c r="CC75" t="n">
-        <v>-5430</v>
-      </c>
-      <c r="CD75" t="n">
-        <v>-6650</v>
-      </c>
-      <c r="CE75" t="n">
-        <v>-11568</v>
-      </c>
-      <c r="CF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG75" t="n">
-        <v>-32446</v>
-      </c>
-      <c r="CH75" t="n">
-        <v>-14002</v>
-      </c>
-      <c r="CI75" t="n">
-        <v>-12237</v>
-      </c>
-      <c r="CJ75" t="n">
-        <v>-14253</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -20333,52 +16889,6 @@
       </c>
       <c r="BT76" t="n">
         <v>791</v>
-      </c>
-      <c r="BU76" t="inlineStr"/>
-      <c r="BV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW76" t="n">
-        <v>-4786</v>
-      </c>
-      <c r="BX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY76" t="n">
-        <v>-13884</v>
-      </c>
-      <c r="BZ76" t="n">
-        <v>-5600</v>
-      </c>
-      <c r="CA76" t="n">
-        <v>-8158</v>
-      </c>
-      <c r="CB76" t="n">
-        <v>-7127</v>
-      </c>
-      <c r="CC76" t="n">
-        <v>-2146</v>
-      </c>
-      <c r="CD76" t="n">
-        <v>-6021</v>
-      </c>
-      <c r="CE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF76" t="n">
-        <v>-17746</v>
-      </c>
-      <c r="CG76" t="n">
-        <v>23767</v>
-      </c>
-      <c r="CH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ76" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -20550,22 +17060,6 @@
       <c r="BR77" t="inlineStr"/>
       <c r="BS77" t="inlineStr"/>
       <c r="BT77" t="inlineStr"/>
-      <c r="BU77" t="inlineStr"/>
-      <c r="BV77" t="inlineStr"/>
-      <c r="BW77" t="inlineStr"/>
-      <c r="BX77" t="inlineStr"/>
-      <c r="BY77" t="inlineStr"/>
-      <c r="BZ77" t="inlineStr"/>
-      <c r="CA77" t="inlineStr"/>
-      <c r="CB77" t="inlineStr"/>
-      <c r="CC77" t="inlineStr"/>
-      <c r="CD77" t="inlineStr"/>
-      <c r="CE77" t="inlineStr"/>
-      <c r="CF77" t="inlineStr"/>
-      <c r="CG77" t="inlineStr"/>
-      <c r="CH77" t="inlineStr"/>
-      <c r="CI77" t="inlineStr"/>
-      <c r="CJ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20736,22 +17230,6 @@
       <c r="BR78" t="inlineStr"/>
       <c r="BS78" t="inlineStr"/>
       <c r="BT78" t="inlineStr"/>
-      <c r="BU78" t="inlineStr"/>
-      <c r="BV78" t="inlineStr"/>
-      <c r="BW78" t="inlineStr"/>
-      <c r="BX78" t="inlineStr"/>
-      <c r="BY78" t="inlineStr"/>
-      <c r="BZ78" t="inlineStr"/>
-      <c r="CA78" t="inlineStr"/>
-      <c r="CB78" t="inlineStr"/>
-      <c r="CC78" t="inlineStr"/>
-      <c r="CD78" t="inlineStr"/>
-      <c r="CE78" t="inlineStr"/>
-      <c r="CF78" t="inlineStr"/>
-      <c r="CG78" t="inlineStr"/>
-      <c r="CH78" t="inlineStr"/>
-      <c r="CI78" t="inlineStr"/>
-      <c r="CJ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20830,48 +17308,6 @@
       <c r="BR79" t="inlineStr"/>
       <c r="BS79" t="inlineStr"/>
       <c r="BT79" t="inlineStr"/>
-      <c r="BU79" t="inlineStr"/>
-      <c r="BV79" t="inlineStr"/>
-      <c r="BW79" t="inlineStr"/>
-      <c r="BX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ79" t="n">
-        <v>342</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -21088,52 +17524,6 @@
       <c r="BT80" t="n">
         <v>34990</v>
       </c>
-      <c r="BU80" t="inlineStr"/>
-      <c r="BV80" t="n">
-        <v>9971</v>
-      </c>
-      <c r="BW80" t="n">
-        <v>9219</v>
-      </c>
-      <c r="BX80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY80" t="n">
-        <v>16540</v>
-      </c>
-      <c r="BZ80" t="n">
-        <v>13943</v>
-      </c>
-      <c r="CA80" t="n">
-        <v>18022</v>
-      </c>
-      <c r="CB80" t="n">
-        <v>18984</v>
-      </c>
-      <c r="CC80" t="n">
-        <v>24400</v>
-      </c>
-      <c r="CD80" t="n">
-        <v>21056</v>
-      </c>
-      <c r="CE80" t="n">
-        <v>4855</v>
-      </c>
-      <c r="CF80" t="n">
-        <v>37055</v>
-      </c>
-      <c r="CG80" t="n">
-        <v>22600</v>
-      </c>
-      <c r="CH80" t="n">
-        <v>17098</v>
-      </c>
-      <c r="CI80" t="n">
-        <v>13951</v>
-      </c>
-      <c r="CJ80" t="n">
-        <v>14885</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
